--- a/data/case1/20/P1_5.xlsx
+++ b/data/case1/20/P1_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.28668939693125139</v>
+        <v>0.35283127929076841</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999991167223357</v>
+        <v>-0.0099999997313524602</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.083587999906898247</v>
+        <v>-0.0089999997274645693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.061991116053995654</v>
+        <v>0.061997179486139586</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999991248833595</v>
+        <v>-0.0059999997313893161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999991052848145</v>
+        <v>-0.0059999997204833733</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998945936071</v>
+        <v>-0.019999999665028412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998944487452</v>
+        <v>-0.042087514046022179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999991040262657</v>
+        <v>-0.005999999715085913</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.071976907533823464</v>
+        <v>-0.0059999997141702011</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999991230092462</v>
+        <v>-0.0044999997199468567</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999991029897615</v>
+        <v>0.043680799111356805</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999990883925491</v>
+        <v>-0.0059999997091404467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999016432561</v>
+        <v>-0.011999999684317864</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999990813492943</v>
+        <v>-0.0059999997064714705</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999990785866153</v>
+        <v>-0.0059999997053876708</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999990748629273</v>
+        <v>-0.0059999997039605901</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999990403741847</v>
+        <v>-0.0089999996919578606</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999991271718649</v>
+        <v>-0.0089999997342053994</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999991184601669</v>
+        <v>-0.0089999997245620023</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999991172717841</v>
+        <v>-0.076383652242593136</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999991166314075</v>
+        <v>-0.0089999997219392114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999990944873431</v>
+        <v>-0.0089999997248551011</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.049258609495554495</v>
+        <v>-0.041999999592031934</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998699619567</v>
+        <v>-0.041999999589684478</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999991035866174</v>
+        <v>-0.0059999997192115018</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999991005454945</v>
+        <v>-0.0059999997174249309</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999990864874064</v>
+        <v>-0.0059999997107560432</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.011432346184099274</v>
+        <v>-0.011999999682771545</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998912986872</v>
+        <v>-0.019999999649385813</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998960524508</v>
+        <v>-0.014999999665514352</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998891322313</v>
+        <v>-0.020999999641650113</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999990608057274</v>
+        <v>-0.0059999996997248672</v>
       </c>
     </row>
   </sheetData>
